--- a/Dados de Contas/Extrato XPAG/Extrato Xpag 2024.xlsx
+++ b/Dados de Contas/Extrato XPAG/Extrato Xpag 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -89,15 +89,22 @@
   </si>
   <si>
     <t xml:space="preserve">Central de Vendas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isf Credito LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagamento de Tarifa Xpag Pj Mei – 07/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -165,11 +172,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,6 +191,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -199,244 +222,340 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45436</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>139</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45440</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>-139</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45441</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>347.93</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45441</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>-347.93</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45460</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45460</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>-9.9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45460</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>-2490.1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45470</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>194.71</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45470</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>-194.71</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>-2607.6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Dados de Contas/Extrato XPAG/Extrato Xpag 2024.xlsx
+++ b/Dados de Contas/Extrato XPAG/Extrato Xpag 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -94,17 +94,25 @@
     <t xml:space="preserve">Isf Credito LTDA</t>
   </si>
   <si>
+    <t xml:space="preserve">Comissão</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pagamento de Tarifa Xpag Pj Mei – 07/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagamento de Tarifa Xpag Pj Mei – 08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Lucas Silva Camara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -172,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,16 +201,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -222,19 +226,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,22 +475,22 @@
       <c r="A11" s="5" t="n">
         <v>45485</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="4" t="n">
         <v>117.5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -494,22 +498,22 @@
       <c r="A12" s="5" t="n">
         <v>45485</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="2" t="n">
         <v>-9.9</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -517,22 +521,22 @@
       <c r="A13" s="5" t="n">
         <v>45485</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -540,7 +544,7 @@
       <c r="A14" s="5" t="n">
         <v>45485</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="4" t="n">
         <v>-2607.6</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -556,6 +560,98 @@
         <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>100.21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>-2590.31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
